--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD133A6-9B07-452F-9D7D-0668AFFA5B81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="17865" windowHeight="12900" tabRatio="445" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
   <si>
     <t>その他エラー</t>
     <rPh sb="2" eb="3">
@@ -31,13 +40,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>テストデータシート名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -145,10 +147,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>データNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取引単体テスト</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
@@ -167,20 +165,6 @@
   </si>
   <si>
     <t>システム機能設計書</t>
-  </si>
-  <si>
-    <t>更新者：</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日：</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入力データ(電文)</t>
@@ -415,16 +399,6 @@
   <si>
     <t>1-1-2</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>PJ名</t>
@@ -974,11 +948,95 @@
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ClientActionTest#testInvalidClientForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClientActionTest#testRegisterNoParameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClientActionTest#testRegisterClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClientActionTest#testRegisterDuplicatedClient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコード列を追加。テストデータシート名列とデータNo列を削除</t>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>更新日：2020/6/29</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者：TIS</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
@@ -1116,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1595,21 +1653,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1754,7 +1797,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1833,9 +1876,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1912,35 +1952,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1958,7 +1995,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,9 +2004,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1991,16 +2025,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,9 +2080,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2064,7 +2095,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2077,6 +2108,72 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2185,82 +2282,19 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="4"/>
-    <cellStyle name="標準_画面標準定義" xfId="7"/>
-    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2336,6 +2370,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2357,7 +2394,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2372,7 +2415,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2456,7 +2505,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2556,7 +2611,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 18"/>
+        <xdr:cNvPr id="9" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2738,7 +2799,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2780,7 +2841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2813,9 +2874,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2848,6 +2926,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3023,15 +3118,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3073,7 +3166,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -3085,12 +3178,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="119">
+      <c r="I25" s="115">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43718</v>
-      </c>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
+        <v>44011</v>
+      </c>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -3630,7 +3723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3646,57 +3739,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="153" t="str">
+      <c r="A1" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="171" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="120">
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="138">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -3704,53 +3797,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="A2" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="120" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="138">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
+        <v>44011</v>
+      </c>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -3758,45 +3851,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
+      <c r="A3" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -3805,7 +3898,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -3831,1187 +3924,1046 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="142"/>
+      <c r="D7" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="143"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="143"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="142"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="168" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="B8" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131">
         <v>43718</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="168" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="176"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="137"/>
       <c r="AF8" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
       <c r="AI8" s="27"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="164"/>
+      <c r="A9" s="174">
+        <v>2</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118">
+        <v>44011</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="124"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="164"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="124"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="163"/>
-      <c r="AI11" s="164"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="124"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="164"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="123"/>
+      <c r="AH12" s="123"/>
+      <c r="AI12" s="124"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
-      <c r="AI13" s="164"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="124"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="164"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="124"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="164"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="124"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="164"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="123"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="124"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="164"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="124"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="164"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="126"/>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="123"/>
+      <c r="AI18" s="124"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
-      <c r="AC19" s="166"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="167"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="163"/>
-      <c r="AI19" s="164"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="124"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="164"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="126"/>
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="126"/>
+      <c r="AC20" s="126"/>
+      <c r="AD20" s="126"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="124"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="163"/>
-      <c r="AH21" s="163"/>
-      <c r="AI21" s="164"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="126"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="126"/>
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="126"/>
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="126"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="124"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="163"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="164"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="124"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="167"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="163"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="164"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="124"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="164"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="124"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="167"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="163"/>
-      <c r="AH25" s="163"/>
-      <c r="AI25" s="164"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="124"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="166"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="167"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="164"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="126"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="123"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="124"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="167"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="164"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="126"/>
+      <c r="AC27" s="126"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="124"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="164"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="123"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="124"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="167"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="163"/>
-      <c r="AH29" s="163"/>
-      <c r="AI29" s="164"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="127"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="124"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="167"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="164"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="126"/>
+      <c r="Z30" s="126"/>
+      <c r="AA30" s="126"/>
+      <c r="AB30" s="126"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="123"/>
+      <c r="AH30" s="123"/>
+      <c r="AI30" s="124"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="167"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="164"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="124"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="167"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="164"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="124"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="164"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="126"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="124"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5035,6 +4987,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5045,13 +5152,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5065,53 +5172,53 @@
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
-    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="28"/>
+    <col min="13" max="15" width="8.625" style="28" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="J6" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5129,54 +5236,53 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:18" s="33" customFormat="1">
+    </row>
+    <row r="9" spans="1:17" ht="21.75" customHeight="1" thickTop="1"/>
+    <row r="10" spans="1:17" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="G10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>12</v>
-      </c>
       <c r="J10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="L10" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="36" t="s">
+      <c r="N10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="O10" s="35" t="s">
         <v>4</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>15</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>5</v>
@@ -5184,515 +5290,504 @@
       <c r="Q10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="33" customFormat="1" ht="90">
-      <c r="A11" s="37" t="s">
+    </row>
+    <row r="11" spans="1:17" s="33" customFormat="1" ht="90">
+      <c r="A11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="40">
+        <v>43718</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" s="33" customFormat="1" ht="56.25">
+      <c r="A12" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="40">
+        <v>43718</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="90">
+      <c r="A13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="80"/>
+    </row>
+    <row r="14" spans="1:17" s="54" customFormat="1" ht="22.5">
+      <c r="A14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+    </row>
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+    </row>
+    <row r="16" spans="1:17" s="58" customFormat="1" ht="67.5">
+      <c r="A16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="40">
+        <v>43718</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" s="58" customFormat="1" ht="45">
+      <c r="A17" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+    </row>
+    <row r="18" spans="1:17" s="58" customFormat="1" ht="45">
+      <c r="A18" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+    </row>
+    <row r="19" spans="1:17" s="58" customFormat="1" ht="45">
+      <c r="A19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+    </row>
+    <row r="20" spans="1:17" s="58" customFormat="1" ht="22.5">
+      <c r="A20" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+    </row>
+    <row r="21" spans="1:17" ht="45">
+      <c r="A21" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="99"/>
+    </row>
+    <row r="22" spans="1:17" s="58" customFormat="1" ht="45">
+      <c r="A22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="1:17" ht="56.25">
+      <c r="A23" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="99"/>
+    </row>
+    <row r="24" spans="1:17" ht="56.25">
+      <c r="A24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="99"/>
+    </row>
+    <row r="25" spans="1:17" s="58" customFormat="1" ht="67.5">
+      <c r="A25" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="111"/>
+      <c r="F25" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="62" t="s">
+      <c r="H25" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="99"/>
+    </row>
+    <row r="26" spans="1:17" s="58" customFormat="1" ht="67.5">
+      <c r="A26" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="65"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="41" t="s">
+      <c r="K26" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="41">
+      <c r="M26" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="40">
         <v>43718</v>
       </c>
-      <c r="P11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" s="33" customFormat="1" ht="56.25">
-      <c r="A12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" s="41">
-        <v>43718</v>
-      </c>
-      <c r="P12" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" s="55" customFormat="1" ht="90">
-      <c r="A13" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="83"/>
-    </row>
-    <row r="14" spans="1:18" s="55" customFormat="1" ht="22.5">
-      <c r="A14" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="83"/>
-    </row>
-    <row r="15" spans="1:18" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-    </row>
-    <row r="16" spans="1:18" s="59" customFormat="1" ht="67.5">
-      <c r="A16" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="34" t="s">
+      <c r="O26" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="41">
-        <v>43718</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-    </row>
-    <row r="17" spans="1:18" s="59" customFormat="1" ht="45">
-      <c r="A17" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-    </row>
-    <row r="18" spans="1:18" s="59" customFormat="1" ht="45">
-      <c r="A18" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-    </row>
-    <row r="19" spans="1:18" s="59" customFormat="1" ht="45">
-      <c r="A19" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-    </row>
-    <row r="20" spans="1:18" s="59" customFormat="1" ht="22.5">
-      <c r="A20" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-    </row>
-    <row r="21" spans="1:18" ht="45">
-      <c r="A21" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="102"/>
-    </row>
-    <row r="22" spans="1:18" s="59" customFormat="1" ht="45">
-      <c r="A22" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="102"/>
-    </row>
-    <row r="23" spans="1:18" ht="56.25">
-      <c r="A23" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="102"/>
-    </row>
-    <row r="24" spans="1:18" ht="56.25">
-      <c r="A24" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="102"/>
-    </row>
-    <row r="25" spans="1:18" s="59" customFormat="1" ht="67.5">
-      <c r="A25" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="102"/>
-    </row>
-    <row r="26" spans="1:18" s="59" customFormat="1" ht="67.5">
-      <c r="A26" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O26" s="41">
-        <v>43718</v>
-      </c>
-      <c r="P26" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="72"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5703,7 +5798,6 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
-    <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD133A6-9B07-452F-9D7D-0668AFFA5B81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="17865" windowHeight="12900" tabRatio="445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -18,20 +17,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>その他エラー</t>
     <rPh sb="2" eb="3">
@@ -40,6 +31,13 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>テストデータシート名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -147,6 +145,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>データNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>取引単体テスト</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
@@ -165,6 +167,20 @@
   </si>
   <si>
     <t>システム機能設計書</t>
+  </si>
+  <si>
+    <t>更新者：</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日：</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入力データ(電文)</t>
@@ -399,6 +415,16 @@
   <si>
     <t>1-1-2</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１．０版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>PJ名</t>
@@ -948,95 +974,11 @@
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>ClientActionTest#testInvalidClientForm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClientActionTest#testRegisterNoParameter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClientActionTest#testRegisterClient</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClientActionTest#testRegisterDuplicatedClient</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1版</t>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストコード列を追加。テストデータシート名列とデータNo列を削除</t>
-    <rPh sb="6" eb="7">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>更新日：2020/6/29</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新者：TIS</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
@@ -1174,7 +1116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1653,6 +1595,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1797,7 +1754,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1876,6 +1833,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1952,32 +1912,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1958,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2004,6 +1967,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2025,16 +1991,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2046,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2095,7 +2064,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2108,6 +2077,114 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2144,157 +2221,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="パーセント 2" xfId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_画面標準" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準_画面標準" xfId="4"/>
+    <cellStyle name="標準_画面標準定義" xfId="7"/>
+    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2370,9 +2336,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2394,13 +2357,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Group 17"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2415,13 +2372,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="Text Box 12"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2505,13 +2456,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Text Box 13"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2611,13 +2556,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Text Box 18"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2799,7 +2738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2841,7 +2780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2874,26 +2813,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2926,23 +2848,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3118,13 +3023,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3166,7 +3073,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -3178,12 +3085,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="115">
+      <c r="I25" s="119">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44011</v>
-      </c>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
+        <v>43718</v>
+      </c>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -3723,7 +3630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3739,57 +3646,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="171" t="str">
+      <c r="A1" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="153" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="120">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="122"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -3797,53 +3704,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="150" t="str">
+      <c r="A2" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="138">
+        <v/>
+      </c>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="120" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44011</v>
-      </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+        <v/>
+      </c>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="122"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -3851,45 +3758,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="A3" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="122"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -3898,7 +3805,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -3924,1046 +3831,1187 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="141" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="142"/>
+      <c r="B7" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="125"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131">
+      <c r="B8" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170">
         <v>43718</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="173"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175"/>
+      <c r="AE8" s="176"/>
       <c r="AF8" s="25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
       <c r="AI8" s="27"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="174">
-        <v>2</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118">
-        <v>44011</v>
-      </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="124"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="164"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="124"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="164"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="124"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="164"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="124"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="166"/>
+      <c r="AA12" s="166"/>
+      <c r="AB12" s="166"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="167"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="164"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="124"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="162"/>
+      <c r="AG13" s="163"/>
+      <c r="AH13" s="163"/>
+      <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="124"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="166"/>
+      <c r="AC14" s="166"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="164"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="124"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="164"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="124"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="164"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="123"/>
-      <c r="AH17" s="123"/>
-      <c r="AI17" s="124"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="166"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="167"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="163"/>
+      <c r="AH17" s="163"/>
+      <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="126"/>
-      <c r="AC18" s="126"/>
-      <c r="AD18" s="126"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="123"/>
-      <c r="AH18" s="123"/>
-      <c r="AI18" s="124"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="166"/>
+      <c r="AC18" s="166"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="167"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="163"/>
+      <c r="AH18" s="163"/>
+      <c r="AI18" s="164"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="123"/>
-      <c r="AH19" s="123"/>
-      <c r="AI19" s="124"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="166"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="166"/>
+      <c r="AA19" s="166"/>
+      <c r="AB19" s="166"/>
+      <c r="AC19" s="166"/>
+      <c r="AD19" s="166"/>
+      <c r="AE19" s="167"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="164"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="126"/>
-      <c r="AC20" s="126"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="124"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="166"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="167"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="163"/>
+      <c r="AI20" s="164"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="126"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
-      <c r="AI21" s="124"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+      <c r="X21" s="166"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="166"/>
+      <c r="AB21" s="166"/>
+      <c r="AC21" s="166"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="167"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="163"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="164"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="126"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="126"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="123"/>
-      <c r="AI22" s="124"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="166"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="167"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="163"/>
+      <c r="AH22" s="163"/>
+      <c r="AI22" s="164"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="123"/>
-      <c r="AH23" s="123"/>
-      <c r="AI23" s="124"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="166"/>
+      <c r="AB23" s="166"/>
+      <c r="AC23" s="166"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="167"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="163"/>
+      <c r="AH23" s="163"/>
+      <c r="AI23" s="164"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="124"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="166"/>
+      <c r="X24" s="166"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="166"/>
+      <c r="AA24" s="166"/>
+      <c r="AB24" s="166"/>
+      <c r="AC24" s="166"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="167"/>
+      <c r="AF24" s="162"/>
+      <c r="AG24" s="163"/>
+      <c r="AH24" s="163"/>
+      <c r="AI24" s="164"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="124"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="166"/>
+      <c r="X25" s="166"/>
+      <c r="Y25" s="166"/>
+      <c r="Z25" s="166"/>
+      <c r="AA25" s="166"/>
+      <c r="AB25" s="166"/>
+      <c r="AC25" s="166"/>
+      <c r="AD25" s="166"/>
+      <c r="AE25" s="167"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="163"/>
+      <c r="AH25" s="163"/>
+      <c r="AI25" s="164"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="123"/>
-      <c r="AH26" s="123"/>
-      <c r="AI26" s="124"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="166"/>
+      <c r="W26" s="166"/>
+      <c r="X26" s="166"/>
+      <c r="Y26" s="166"/>
+      <c r="Z26" s="166"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="166"/>
+      <c r="AC26" s="166"/>
+      <c r="AD26" s="166"/>
+      <c r="AE26" s="167"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="163"/>
+      <c r="AH26" s="163"/>
+      <c r="AI26" s="164"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="123"/>
-      <c r="AH27" s="123"/>
-      <c r="AI27" s="124"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="166"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="166"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="166"/>
+      <c r="AB27" s="166"/>
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="166"/>
+      <c r="AE27" s="167"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="163"/>
+      <c r="AH27" s="163"/>
+      <c r="AI27" s="164"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="123"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="124"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="167"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="163"/>
+      <c r="AH28" s="163"/>
+      <c r="AI28" s="164"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="126"/>
-      <c r="Z29" s="126"/>
-      <c r="AA29" s="126"/>
-      <c r="AB29" s="126"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="123"/>
-      <c r="AH29" s="123"/>
-      <c r="AI29" s="124"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="166"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="166"/>
+      <c r="W29" s="166"/>
+      <c r="X29" s="166"/>
+      <c r="Y29" s="166"/>
+      <c r="Z29" s="166"/>
+      <c r="AA29" s="166"/>
+      <c r="AB29" s="166"/>
+      <c r="AC29" s="166"/>
+      <c r="AD29" s="166"/>
+      <c r="AE29" s="167"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="163"/>
+      <c r="AH29" s="163"/>
+      <c r="AI29" s="164"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="126"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="123"/>
-      <c r="AH30" s="123"/>
-      <c r="AI30" s="124"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="166"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="166"/>
+      <c r="AB30" s="166"/>
+      <c r="AC30" s="166"/>
+      <c r="AD30" s="166"/>
+      <c r="AE30" s="167"/>
+      <c r="AF30" s="162"/>
+      <c r="AG30" s="163"/>
+      <c r="AH30" s="163"/>
+      <c r="AI30" s="164"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="123"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="124"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="166"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="166"/>
+      <c r="W31" s="166"/>
+      <c r="X31" s="166"/>
+      <c r="Y31" s="166"/>
+      <c r="Z31" s="166"/>
+      <c r="AA31" s="166"/>
+      <c r="AB31" s="166"/>
+      <c r="AC31" s="166"/>
+      <c r="AD31" s="166"/>
+      <c r="AE31" s="167"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="163"/>
+      <c r="AH31" s="163"/>
+      <c r="AI31" s="164"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="123"/>
-      <c r="AH32" s="123"/>
-      <c r="AI32" s="124"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="166"/>
+      <c r="W32" s="166"/>
+      <c r="X32" s="166"/>
+      <c r="Y32" s="166"/>
+      <c r="Z32" s="166"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="166"/>
+      <c r="AC32" s="166"/>
+      <c r="AD32" s="166"/>
+      <c r="AE32" s="167"/>
+      <c r="AF32" s="162"/>
+      <c r="AG32" s="163"/>
+      <c r="AH32" s="163"/>
+      <c r="AI32" s="164"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="124"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="166"/>
+      <c r="W33" s="166"/>
+      <c r="X33" s="166"/>
+      <c r="Y33" s="166"/>
+      <c r="Z33" s="166"/>
+      <c r="AA33" s="166"/>
+      <c r="AB33" s="166"/>
+      <c r="AC33" s="166"/>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="167"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="163"/>
+      <c r="AH33" s="163"/>
+      <c r="AI33" s="164"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4987,161 +5035,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5152,13 +5045,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5172,53 +5065,53 @@
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
-    <col min="13" max="15" width="8.625" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="28"/>
+    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5236,53 +5129,54 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:17" s="33" customFormat="1">
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
+    <row r="10" spans="1:18" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>3</v>
+      <c r="M10" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>5</v>
@@ -5290,504 +5184,515 @@
       <c r="Q10" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="33" customFormat="1" ht="90">
-      <c r="A11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="65" t="s">
+      <c r="R10" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="33" customFormat="1" ht="90">
+      <c r="A11" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="65"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="41">
+        <v>43718</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" s="33" customFormat="1" ht="56.25">
+      <c r="A12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="41">
+        <v>43718</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" s="55" customFormat="1" ht="90">
+      <c r="A13" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="83"/>
+    </row>
+    <row r="14" spans="1:18" s="55" customFormat="1" ht="22.5">
+      <c r="A14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="83"/>
+    </row>
+    <row r="15" spans="1:18" s="33" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+    </row>
+    <row r="16" spans="1:18" s="59" customFormat="1" ht="67.5">
+      <c r="A16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="41">
+        <v>43718</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" s="59" customFormat="1" ht="45">
+      <c r="A17" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+    </row>
+    <row r="18" spans="1:18" s="59" customFormat="1" ht="45">
+      <c r="A18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+    </row>
+    <row r="19" spans="1:18" s="59" customFormat="1" ht="45">
+      <c r="A19" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="117"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+    </row>
+    <row r="20" spans="1:18" s="59" customFormat="1" ht="22.5">
+      <c r="A20" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+    </row>
+    <row r="21" spans="1:18" ht="45">
+      <c r="A21" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="102"/>
+    </row>
+    <row r="22" spans="1:18" s="59" customFormat="1" ht="45">
+      <c r="A22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="102"/>
+    </row>
+    <row r="23" spans="1:18" ht="56.25">
+      <c r="A23" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="102"/>
+    </row>
+    <row r="24" spans="1:18" ht="56.25">
+      <c r="A24" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="102"/>
+    </row>
+    <row r="25" spans="1:18" s="59" customFormat="1" ht="67.5">
+      <c r="A25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="40">
+      <c r="B25" s="45"/>
+      <c r="C25" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="102"/>
+    </row>
+    <row r="26" spans="1:18" s="59" customFormat="1" ht="67.5">
+      <c r="A26" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" s="41">
         <v>43718</v>
       </c>
-      <c r="O11" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" s="33" customFormat="1" ht="56.25">
-      <c r="A12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="40">
-        <v>43718</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="90">
-      <c r="A13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="80"/>
-    </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" ht="22.5">
-      <c r="A14" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="80"/>
-    </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-    </row>
-    <row r="16" spans="1:17" s="58" customFormat="1" ht="67.5">
-      <c r="A16" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16" s="40">
-        <v>43718</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="1:17" s="58" customFormat="1" ht="45">
-      <c r="A17" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-    </row>
-    <row r="18" spans="1:17" s="58" customFormat="1" ht="45">
-      <c r="A18" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-    </row>
-    <row r="19" spans="1:17" s="58" customFormat="1" ht="45">
-      <c r="A19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-    </row>
-    <row r="20" spans="1:17" s="58" customFormat="1" ht="22.5">
-      <c r="A20" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-    </row>
-    <row r="21" spans="1:17" ht="45">
-      <c r="A21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="99"/>
-    </row>
-    <row r="22" spans="1:17" s="58" customFormat="1" ht="45">
-      <c r="A22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="99"/>
-    </row>
-    <row r="23" spans="1:17" ht="56.25">
-      <c r="A23" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="99"/>
-    </row>
-    <row r="24" spans="1:17" ht="56.25">
-      <c r="A24" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="99"/>
-    </row>
-    <row r="25" spans="1:17" s="58" customFormat="1" ht="67.5">
-      <c r="A25" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="99"/>
-    </row>
-    <row r="26" spans="1:17" s="58" customFormat="1" ht="67.5">
-      <c r="A26" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="40">
-        <v>43718</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="70"/>
+      <c r="P26" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5798,6 +5703,7 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
+    <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(REST)_B10103_顧客登録.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD41FDB-494F-42AF-829A-64A76D874490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="17865" windowHeight="12900" tabRatio="445" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -17,12 +18,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">取引単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>その他エラー</t>
     <rPh sb="2" eb="3">
@@ -978,7 +979,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
@@ -1754,7 +1755,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1936,7 +1937,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2077,6 +2077,72 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2185,82 +2251,16 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="4"/>
-    <cellStyle name="標準_画面標準定義" xfId="7"/>
-    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2336,6 +2336,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2357,7 +2360,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2372,7 +2381,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2456,7 +2471,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2556,7 +2577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 18"/>
+        <xdr:cNvPr id="9" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2738,7 +2765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2780,7 +2807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2813,9 +2840,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2848,6 +2892,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3023,15 +3084,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3085,12 +3144,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="119">
+      <c r="I25" s="118">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -3630,7 +3689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3646,57 +3705,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="153" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="174" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="120">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="141">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="143"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -3704,53 +3763,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="153" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="120" t="str">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="141" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="143"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -3758,45 +3817,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="143"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -3833,93 +3892,93 @@
       <c r="A7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="145"/>
+      <c r="D7" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="146"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="123" t="s">
+      <c r="H7" s="146"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="123" t="s">
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="123" t="s">
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="145"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="C8" s="133"/>
+      <c r="D8" s="134">
         <v>43718</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="176"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="140"/>
       <c r="AF8" s="25" t="s">
         <v>95</v>
       </c>
@@ -3929,1089 +3988,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="164"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="164"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="127"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="163"/>
-      <c r="AI11" s="164"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="127"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="164"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="127"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
-      <c r="AI13" s="164"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="164"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="127"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="164"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="127"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="164"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="127"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="164"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="127"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="164"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="129"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="127"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
-      <c r="AC19" s="166"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="167"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="163"/>
-      <c r="AI19" s="164"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="127"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="164"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="126"/>
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="127"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="163"/>
-      <c r="AH21" s="163"/>
-      <c r="AI21" s="164"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="129"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="127"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="163"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="164"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="127"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="167"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="163"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="164"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="127"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="164"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="127"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="167"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="163"/>
-      <c r="AH25" s="163"/>
-      <c r="AI25" s="164"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="127"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="166"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="167"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="164"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="167"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="164"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="129"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="127"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="164"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="127"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="167"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="163"/>
-      <c r="AH29" s="163"/>
-      <c r="AI29" s="164"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="127"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="167"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="164"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="127"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="167"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="164"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="129"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="127"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="167"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="164"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="127"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="164"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="129"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="127"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5035,6 +4939,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5045,13 +5104,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5277,26 +5336,26 @@
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78" t="s">
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="83"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="82"/>
     </row>
     <row r="14" spans="1:18" s="55" customFormat="1" ht="22.5">
       <c r="A14" s="47" t="s">
@@ -5305,54 +5364,54 @@
       <c r="B14" s="54"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87" t="s">
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="83"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="82"/>
     </row>
     <row r="15" spans="1:18" s="33" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="88" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="87" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
     </row>
     <row r="16" spans="1:18" s="59" customFormat="1" ht="67.5">
       <c r="A16" s="47" t="s">
@@ -5401,26 +5460,26 @@
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100" t="s">
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="100" t="s">
+      <c r="I17" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
     </row>
     <row r="18" spans="1:18" s="59" customFormat="1" ht="45">
       <c r="A18" s="47" t="s">
@@ -5429,26 +5488,26 @@
       <c r="B18" s="54"/>
       <c r="C18" s="45"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="100" t="s">
+      <c r="I18" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
     </row>
     <row r="19" spans="1:18" s="59" customFormat="1" ht="45">
       <c r="A19" s="47" t="s">
@@ -5457,26 +5516,26 @@
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="116" t="s">
+      <c r="E19" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100" t="s">
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="100" t="s">
+      <c r="I19" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
     </row>
     <row r="20" spans="1:18" s="59" customFormat="1" ht="22.5">
       <c r="A20" s="47" t="s">
@@ -5485,187 +5544,189 @@
       <c r="B20" s="52"/>
       <c r="C20" s="60"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95" t="s">
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
     </row>
     <row r="21" spans="1:18" ht="45">
       <c r="A21" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100" t="s">
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="100" t="s">
+      <c r="I21" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="102"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="101"/>
     </row>
     <row r="22" spans="1:18" s="59" customFormat="1" ht="45">
       <c r="A22" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="45"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100" t="s">
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="100" t="s">
+      <c r="I22" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="102"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="101"/>
     </row>
     <row r="23" spans="1:18" ht="56.25">
       <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100" t="s">
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="102"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="101"/>
     </row>
     <row r="24" spans="1:18" ht="56.25">
       <c r="A24" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="45"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="110"/>
+      <c r="D24" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100" t="s">
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="105" t="s">
+      <c r="I24" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="102"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="101"/>
     </row>
     <row r="25" spans="1:18" s="59" customFormat="1" ht="67.5">
       <c r="A25" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="100" t="s">
+      <c r="E25" s="114"/>
+      <c r="F25" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="100" t="s">
+      <c r="I25" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="102"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="101"/>
     </row>
     <row r="26" spans="1:18" s="59" customFormat="1" ht="67.5">
       <c r="A26" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="53"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49" t="s">
@@ -5692,7 +5753,7 @@
         <v>114</v>
       </c>
       <c r="Q26" s="50"/>
-      <c r="R26" s="72"/>
+      <c r="R26" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
